--- a/public/template_penjualan.xlsx
+++ b/public/template_penjualan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="9390" windowHeight="7650"/>
+    <workbookView windowWidth="19635" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Data Penjualan" sheetId="1" r:id="rId1"/>
@@ -14,33 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>penjualan_kode</t>
   </si>
   <si>
-    <t>user_id</t>
+    <t>user</t>
   </si>
   <si>
     <t>pembeli</t>
   </si>
   <si>
-    <t>barang_nama</t>
+    <t>penjualan_tanggal</t>
   </si>
   <si>
-    <t>harga</t>
+    <t>barang_nama</t>
   </si>
   <si>
     <t>jumlah</t>
   </si>
   <si>
-    <t>PJ01000</t>
+    <t>XO</t>
   </si>
   <si>
-    <t>Yaya</t>
+    <t>Administrator1</t>
   </si>
   <si>
-    <t>Televisi LG</t>
+    <t xml:space="preserve">Naura </t>
+  </si>
+  <si>
+    <t>Coca Cola</t>
   </si>
   <si>
     <t>Mouse Robot</t>
@@ -50,18 +53,34 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -518,28 +537,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,124 +558,139 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1014,63 +1039,95 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.1428571428571" customWidth="1"/>
-    <col min="2" max="3" width="9.33333333333333" customWidth="1"/>
-    <col min="4" max="4" width="17.552380952381" customWidth="1"/>
-    <col min="5" max="6" width="8.1047619047619" customWidth="1"/>
+    <col min="1" max="1" width="17.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="20.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="17.552380952381" customWidth="1"/>
+    <col min="4" max="4" width="20.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="14.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2"/>
-      <c r="C2" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2"/>
-      <c r="F2">
+      <c r="D2" s="5">
+        <v>45566.8750231481</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5">
+        <v>45566.8750231481</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="4:6">
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
+    <row r="4" spans="1:1">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template_penjualan.xlsx
+++ b/public/template_penjualan.xlsx
@@ -37,7 +37,7 @@
     <t>XO</t>
   </si>
   <si>
-    <t>Administrator1</t>
+    <t>Administrator</t>
   </si>
   <si>
     <t xml:space="preserve">Naura </t>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="5"/>
